--- a/testFile/case/loan.xlsx
+++ b/testFile/case/loan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="37640" windowHeight="21140"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="37640" windowHeight="21140" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="add" sheetId="3" r:id="rId1"/>
@@ -181,10 +181,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>403464275718379520</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>post</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -380,6 +376,10 @@
   </si>
   <si>
     <t>1085084634755813376</t>
+  </si>
+  <si>
+    <t>420092220130060288</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -787,7 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -915,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -955,7 +955,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="D2">
         <v>36</v>
@@ -1088,10 +1088,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>13</v>
@@ -1102,13 +1102,13 @@
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>36</v>
@@ -1152,10 +1152,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
         <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>16</v>
@@ -1215,7 +1215,7 @@
         <v>150</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="3">
         <v>36</v>
@@ -1253,13 +1253,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>13</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>16</v>
@@ -1279,7 +1279,7 @@
         <v>150</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -1335,7 +1335,7 @@
         <v>21</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>13</v>
@@ -1346,10 +1346,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
         <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2">
@@ -1359,7 +1359,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2">
         <v>13758141173</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
@@ -1490,22 +1490,22 @@
         <v>35</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>55</v>
       </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J2">
         <v>36</v>
@@ -1567,13 +1567,13 @@
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2">
         <v>36</v>
@@ -1632,16 +1632,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>36</v>
@@ -1703,16 +1703,16 @@
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2">
         <v>36</v>

--- a/testFile/case/loan.xlsx
+++ b/testFile/case/loan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="37640" windowHeight="21140" activeTab="9"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="37640" windowHeight="21140" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="add" sheetId="3" r:id="rId1"/>
@@ -22,10 +22,11 @@
     <sheet name="unbindCard" sheetId="8" r:id="rId8"/>
     <sheet name="partialPayment" sheetId="9" r:id="rId9"/>
     <sheet name="refund" sheetId="10" r:id="rId10"/>
-    <sheet name="tryCalculation" sheetId="11" r:id="rId11"/>
-    <sheet name="querySign" sheetId="12" r:id="rId12"/>
-    <sheet name="repeal" sheetId="13" r:id="rId13"/>
-    <sheet name="downloadContractFile" sheetId="14" r:id="rId14"/>
+    <sheet name="addloanaudit" sheetId="17" r:id="rId11"/>
+    <sheet name="tryCalculation" sheetId="11" r:id="rId12"/>
+    <sheet name="querySign" sheetId="12" r:id="rId13"/>
+    <sheet name="repeal" sheetId="13" r:id="rId14"/>
+    <sheet name="downloadContractFile" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="76">
   <si>
     <t>case_name</t>
   </si>
@@ -379,6 +380,23 @@
   </si>
   <si>
     <t>420092220130060288</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>家装补充资料</t>
+    <rPh sb="0" eb="1">
+      <t>jia zhuang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu chong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi l</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -915,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -968,6 +986,63 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="5" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -1023,7 +1098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
@@ -1067,7 +1142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1120,7 +1195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
